--- a/docentes/Caballero Rosas María Teresa Estadisticos 2020.xlsx
+++ b/docentes/Caballero Rosas María Teresa Estadisticos 2020.xlsx
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1131,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1154,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1292,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1338,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1384,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1430,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1453,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1476,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1499,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
